--- a/biology/Zoologie/Deltocyathus_inusitiatus/Deltocyathus_inusitiatus.xlsx
+++ b/biology/Zoologie/Deltocyathus_inusitiatus/Deltocyathus_inusitiatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Deltocyathus inusitiatus est une espèce de coraux de la famille des Deltocyathidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans leur publication originale[2], les auteurs indiquent que les spécimens analysés mesuraient entre 11 et 13,4 mm de diamètre et entre 2,9 et 4 mm de hauteur[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans leur publication originale, les auteurs indiquent que les spécimens analysés mesuraient entre 11 et 13,4 mm de diamètre et entre 2,9 et 4 mm de hauteur.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, du latin inusitiatus, « inhabituel, étrange, rare, extraordinaire », lui a été donné en référence à l'arrangement septal inhabituel de cette espèce[2]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, du latin inusitiatus, « inhabituel, étrange, rare, extraordinaire », lui a été donné en référence à l'arrangement septal inhabituel de cette espèce. 
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kitahara &amp; Cairns, 2009 : A Revision of the Genus Deltocyathus Milne Edwards &amp; Haime, 1848 (Scleractinia, Caryophylliidae) from New Caledonia, with the description of a new species. Zoosystema, vol. 31, n. 2, pp. 233-248 (texte intégral) (en).</t>
         </is>
